--- a/School-implementation1/Article_Data.xlsx
+++ b/School-implementation1/Article_Data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Alperen\github\My_Repositories\BeautifulSoup\School-implementation1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C037733E-F6A6-498C-BB19-D7EBDDCE475B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1908" yWindow="0" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="75">
   <si>
     <t>Makale Başlığı</t>
   </si>
@@ -67,6 +73,9 @@
     <t>SOSYOLOJİK OKUMA DENEMESİ: ADALET AĞAOĞLU’NUN DERT DİNLEME UZMANI ADLI ROMANI</t>
   </si>
   <si>
+    <t>ROMANTİZM TÜRLERİ VE ÜLKELERE GÖRE AYRIMI</t>
+  </si>
+  <si>
     <t>['Nur YILMAZTÜRK DAĞASLANI']</t>
   </si>
   <si>
@@ -97,6 +106,9 @@
     <t>['Menekşe YAVUZ']</t>
   </si>
   <si>
+    <t>['Aslı IŞIKSAL']</t>
+  </si>
+  <si>
     <t>30 Eylül 2021</t>
   </si>
   <si>
@@ -124,6 +136,9 @@
     <t>26 Eylül 2021</t>
   </si>
   <si>
+    <t>26 Ağustos 2021</t>
+  </si>
+  <si>
     <t>19 Mayıs Sosyal Bilimler Dergisi</t>
   </si>
   <si>
@@ -157,6 +172,9 @@
     <t>Akademik Hassasiyetler</t>
   </si>
   <si>
+    <t>Akademik Sanat</t>
+  </si>
+  <si>
     <t>https://dergipark.org.tr/tr/pub/19maysbd/issue/65148/960736</t>
   </si>
   <si>
@@ -190,6 +208,9 @@
     <t>https://dergipark.org.tr/tr/pub/akademik-hassasiyetler/issue/64679/922714</t>
   </si>
   <si>
+    <t>https://dergipark.org.tr/tr/pub/akademiksanat/issue/64719/898278</t>
+  </si>
+  <si>
     <t>https://dergipark.org.tr/tr/download/article-file/1854283</t>
   </si>
   <si>
@@ -221,13 +242,16 @@
   </si>
   <si>
     <t>https://dergipark.org.tr/tr/download/article-file/1720251</t>
+  </si>
+  <si>
+    <t>https://dergipark.org.tr/tr/download/article-file/1643568</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +327,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -349,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,9 +413,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,6 +465,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -590,14 +658,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="105" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,426 +693,272 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="E4" r:id="rId5"/>
-    <hyperlink ref="F4" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="F5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-    <hyperlink ref="E7" r:id="rId11"/>
-    <hyperlink ref="F7" r:id="rId12"/>
-    <hyperlink ref="E8" r:id="rId13"/>
-    <hyperlink ref="F8" r:id="rId14"/>
-    <hyperlink ref="E9" r:id="rId15"/>
-    <hyperlink ref="F9" r:id="rId16"/>
-    <hyperlink ref="E10" r:id="rId17"/>
-    <hyperlink ref="F10" r:id="rId18"/>
-    <hyperlink ref="E11" r:id="rId19"/>
-    <hyperlink ref="F11" r:id="rId20"/>
-    <hyperlink ref="E12" r:id="rId21"/>
-    <hyperlink ref="F12" r:id="rId22"/>
-    <hyperlink ref="E13" r:id="rId23"/>
-    <hyperlink ref="F13" r:id="rId24"/>
-    <hyperlink ref="E14" r:id="rId25"/>
-    <hyperlink ref="F14" r:id="rId26"/>
-    <hyperlink ref="E15" r:id="rId27"/>
-    <hyperlink ref="F15" r:id="rId28"/>
-    <hyperlink ref="E16" r:id="rId29"/>
-    <hyperlink ref="F16" r:id="rId30"/>
-    <hyperlink ref="E17" r:id="rId31"/>
-    <hyperlink ref="F17" r:id="rId32"/>
-    <hyperlink ref="E18" r:id="rId33"/>
-    <hyperlink ref="F18" r:id="rId34"/>
-    <hyperlink ref="E19" r:id="rId35"/>
-    <hyperlink ref="F19" r:id="rId36"/>
-    <hyperlink ref="E20" r:id="rId37"/>
-    <hyperlink ref="F20" r:id="rId38"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="E6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="E10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="F10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="F11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="E12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="F12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
